--- a/Count Text _ Number.xlsx
+++ b/Count Text _ Number.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Advance Excel &amp; Mis\8th Aug'19 Count &amp; Sum\1_Count\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5051E81-8047-4429-9866-94EBBD35FD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10050" windowHeight="6105" tabRatio="880" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="880" firstSheet="3" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summery" sheetId="15" r:id="rId1"/>
@@ -12,8 +18,8 @@
     <sheet name="CountA" sheetId="5" r:id="rId3"/>
     <sheet name="CountBlank" sheetId="6" r:id="rId4"/>
     <sheet name="Countif" sheetId="22" r:id="rId5"/>
-    <sheet name="Countif_Range" sheetId="23" r:id="rId6"/>
-    <sheet name="COUNTIF Range &amp; Val" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId6"/>
+    <sheet name="COUNTIF Range" sheetId="10" r:id="rId7"/>
     <sheet name="COUNTIF Operator" sheetId="9" r:id="rId8"/>
     <sheet name="COUNTIF Exact" sheetId="7" state="hidden" r:id="rId9"/>
     <sheet name="COUNTIF Wildcard" sheetId="8" r:id="rId10"/>
@@ -60,12 +66,12 @@
     <definedName name="XYZ">#REF!</definedName>
     <definedName name="YHM">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4617" uniqueCount="153">
   <si>
     <t>A</t>
   </si>
@@ -525,11 +531,29 @@
   <si>
     <t>CSE</t>
   </si>
+  <si>
+    <t>F4-3</t>
+  </si>
+  <si>
+    <t>F4-2</t>
+  </si>
+  <si>
+    <t>F4-1</t>
+  </si>
+  <si>
+    <t>Column Fixed</t>
+  </si>
+  <si>
+    <t>Row Fixed</t>
+  </si>
+  <si>
+    <t>Row+Column+Database+Cell</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -798,7 +822,7 @@
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +927,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -919,6 +944,9 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,13 +956,13 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
-    <cellStyle name="Comma 2" xfId="7"/>
-    <cellStyle name="Comma_Pivot Tables-Bank Data" xfId="5"/>
+    <cellStyle name="Comma 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Comma_Pivot Tables-Bank Data" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 4" xfId="4"/>
-    <cellStyle name="Normal_Pivot Tables-Bank Data" xfId="6"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normal_Pivot Tables-Bank Data" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Title" xfId="8" builtinId="15"/>
   </cellStyles>
   <dxfs count="1">
@@ -1004,7 +1032,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1037,9 +1065,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1072,6 +1117,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1247,12 +1309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="F2:K18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F2" sqref="F2:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,30 +1325,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="6" spans="6:11" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
@@ -1402,12 +1464,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1666,12 +1728,12 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1828,10 +1890,6 @@
         <v>23</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="I9" s="10">
-        <f>COUNTIFS(A:A,F8,B:B,G8,C:C,H8)</f>
-        <v>5</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
@@ -3207,13 +3265,13 @@
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8" xr:uid="{00000000-0002-0000-0A00-000000000000}">
       <formula1>$A$2:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8" xr:uid="{00000000-0002-0000-0A00-000001000000}">
       <formula1>$B$2:$B$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8" xr:uid="{00000000-0002-0000-0A00-000002000000}">
       <formula1>$C$2:$C$4</formula1>
     </dataValidation>
   </dataValidations>
@@ -3223,12 +3281,12 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3236,74 +3294,74 @@
     <col min="1" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="51" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="35" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="array" ref="F7">SUM(1/COUNTIF(A2:A12,A2:A12))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
-        <f t="array" ref="G6">SUM(1/COUNTIF(A2:A12,A2:A12))</f>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="array" ref="F9">SUM(1/COUNTIF(A2:A12,A2:A12))</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="48" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="52" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="array" ref="G9">SUM(1/COUNTIF(A2:A12,A2:A12))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="51" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3313,11 +3371,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3334,12 +3392,12 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3349,7 +3407,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="35" t="s">
@@ -3361,7 +3419,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -3385,7 +3443,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -3397,17 +3455,17 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="52">
+      <c r="A9" s="53">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="53" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3417,36 +3475,51 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr codeName="Sheet10">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:C561"/>
+  <dimension ref="A1:K561"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:L1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="54" customWidth="1"/>
-    <col min="2" max="2" width="9" style="54" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="54" customWidth="1"/>
+    <col min="1" max="1" width="14" style="55" customWidth="1"/>
+    <col min="2" max="2" width="9" style="55" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="55" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14" style="55" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="56" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F1" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>89</v>
       </c>
@@ -3456,8 +3529,27 @@
       <c r="C2" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="57">
+        <f>COUNTIFS($A:$A,$F2,$B:$B,G$1,$C:$C,"Car")</f>
+        <v>35</v>
+      </c>
+      <c r="H2" s="57">
+        <f t="shared" ref="H2:J2" si="0">COUNTIFS($A:$A,$F2,$B:$B,H$1,$C:$C,"Car")</f>
+        <v>15</v>
+      </c>
+      <c r="I2" s="57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J2" s="57">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>90</v>
       </c>
@@ -3467,8 +3559,27 @@
       <c r="C3" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F3" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G3" s="57">
+        <f t="shared" ref="G3:J4" si="1">COUNTIFS($A:$A,$F3,$B:$B,G$1,$C:$C,"Car")</f>
+        <v>41</v>
+      </c>
+      <c r="H3" s="57">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="I3" s="57">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="J3" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>91</v>
       </c>
@@ -3478,8 +3589,27 @@
       <c r="C4" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F4" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="57">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="H4" s="57">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="57">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J4" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>89</v>
       </c>
@@ -3489,8 +3619,9 @@
       <c r="C5" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F5"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>90</v>
       </c>
@@ -3500,8 +3631,9 @@
       <c r="C6" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F6"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="42" t="s">
         <v>91</v>
       </c>
@@ -3511,8 +3643,9 @@
       <c r="C7" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F7"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="42" t="s">
         <v>89</v>
       </c>
@@ -3522,8 +3655,18 @@
       <c r="C8" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F8"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>90</v>
       </c>
@@ -3533,8 +3676,9 @@
       <c r="C9" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="42" t="s">
         <v>91</v>
       </c>
@@ -3544,8 +3688,15 @@
       <c r="C10" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F10" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42" t="s">
         <v>89</v>
       </c>
@@ -3555,8 +3706,15 @@
       <c r="C11" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F11" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
         <v>90</v>
       </c>
@@ -3566,8 +3724,15 @@
       <c r="C12" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42" t="s">
         <v>91</v>
       </c>
@@ -3577,8 +3742,15 @@
       <c r="C13" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
         <v>89</v>
       </c>
@@ -3588,8 +3760,13 @@
       <c r="C14" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="42" t="s">
         <v>90</v>
       </c>
@@ -3599,8 +3776,13 @@
       <c r="C15" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>91</v>
       </c>
@@ -3610,8 +3792,9 @@
       <c r="C16" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="42" t="s">
         <v>89</v>
       </c>
@@ -3621,8 +3804,9 @@
       <c r="C17" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
         <v>90</v>
       </c>
@@ -3632,8 +3816,9 @@
       <c r="C18" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="42" t="s">
         <v>91</v>
       </c>
@@ -3643,8 +3828,9 @@
       <c r="C19" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
         <v>89</v>
       </c>
@@ -3654,8 +3840,9 @@
       <c r="C20" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="42" t="s">
         <v>90</v>
       </c>
@@ -3665,8 +3852,9 @@
       <c r="C21" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="42" t="s">
         <v>91</v>
       </c>
@@ -3676,8 +3864,9 @@
       <c r="C22" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>89</v>
       </c>
@@ -3687,8 +3876,9 @@
       <c r="C23" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="42" t="s">
         <v>90</v>
       </c>
@@ -3698,8 +3888,9 @@
       <c r="C24" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="42" t="s">
         <v>91</v>
       </c>
@@ -3709,8 +3900,9 @@
       <c r="C25" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="42" t="s">
         <v>89</v>
       </c>
@@ -3720,8 +3912,9 @@
       <c r="C26" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="42" t="s">
         <v>90</v>
       </c>
@@ -3731,8 +3924,9 @@
       <c r="C27" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>91</v>
       </c>
@@ -3742,8 +3936,9 @@
       <c r="C28" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
         <v>89</v>
       </c>
@@ -3753,8 +3948,9 @@
       <c r="C29" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="42" t="s">
         <v>90</v>
       </c>
@@ -3764,8 +3960,9 @@
       <c r="C30" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="42" t="s">
         <v>91</v>
       </c>
@@ -3775,8 +3972,9 @@
       <c r="C31" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="42" t="s">
         <v>89</v>
       </c>
@@ -3786,8 +3984,9 @@
       <c r="C32" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="42" t="s">
         <v>90</v>
       </c>
@@ -3797,8 +3996,9 @@
       <c r="C33" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="42" t="s">
         <v>91</v>
       </c>
@@ -3808,8 +4008,9 @@
       <c r="C34" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="42" t="s">
         <v>89</v>
       </c>
@@ -3819,8 +4020,9 @@
       <c r="C35" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
         <v>90</v>
       </c>
@@ -3830,8 +4032,9 @@
       <c r="C36" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
         <v>91</v>
       </c>
@@ -3841,8 +4044,9 @@
       <c r="C37" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="42" t="s">
         <v>89</v>
       </c>
@@ -3852,8 +4056,9 @@
       <c r="C38" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
         <v>90</v>
       </c>
@@ -3863,8 +4068,9 @@
       <c r="C39" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="42" t="s">
         <v>91</v>
       </c>
@@ -3874,8 +4080,9 @@
       <c r="C40" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="42" t="s">
         <v>89</v>
       </c>
@@ -3885,8 +4092,9 @@
       <c r="C41" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
         <v>90</v>
       </c>
@@ -3896,8 +4104,9 @@
       <c r="C42" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="42" t="s">
         <v>91</v>
       </c>
@@ -3907,8 +4116,9 @@
       <c r="C43" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="42" t="s">
         <v>89</v>
       </c>
@@ -3918,8 +4128,9 @@
       <c r="C44" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F44"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
         <v>90</v>
       </c>
@@ -3929,8 +4140,9 @@
       <c r="C45" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F45"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>91</v>
       </c>
@@ -3940,8 +4152,9 @@
       <c r="C46" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F46"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="42" t="s">
         <v>89</v>
       </c>
@@ -3951,8 +4164,9 @@
       <c r="C47" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F47"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="42" t="s">
         <v>90</v>
       </c>
@@ -3962,8 +4176,9 @@
       <c r="C48" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F48"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>91</v>
       </c>
@@ -3973,8 +4188,9 @@
       <c r="C49" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F49"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>89</v>
       </c>
@@ -3984,8 +4200,9 @@
       <c r="C50" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F50"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
         <v>90</v>
       </c>
@@ -3995,8 +4212,9 @@
       <c r="C51" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F51"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
         <v>91</v>
       </c>
@@ -4006,8 +4224,9 @@
       <c r="C52" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F52"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>89</v>
       </c>
@@ -4017,8 +4236,9 @@
       <c r="C53" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F53"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>90</v>
       </c>
@@ -4028,8 +4248,9 @@
       <c r="C54" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>91</v>
       </c>
@@ -4039,8 +4260,9 @@
       <c r="C55" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F55"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
         <v>89</v>
       </c>
@@ -4050,8 +4272,9 @@
       <c r="C56" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F56"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
         <v>90</v>
       </c>
@@ -4061,8 +4284,9 @@
       <c r="C57" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F57"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="42" t="s">
         <v>91</v>
       </c>
@@ -4072,8 +4296,9 @@
       <c r="C58" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F58"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="42" t="s">
         <v>89</v>
       </c>
@@ -4083,8 +4308,9 @@
       <c r="C59" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F59"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="42" t="s">
         <v>90</v>
       </c>
@@ -4094,8 +4320,9 @@
       <c r="C60" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F60"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="42" t="s">
         <v>91</v>
       </c>
@@ -4105,8 +4332,9 @@
       <c r="C61" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F61"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="42" t="s">
         <v>89</v>
       </c>
@@ -4116,8 +4344,9 @@
       <c r="C62" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F62"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="42" t="s">
         <v>90</v>
       </c>
@@ -4127,8 +4356,9 @@
       <c r="C63" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F63"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="42" t="s">
         <v>91</v>
       </c>
@@ -4138,8 +4368,9 @@
       <c r="C64" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F64"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="42" t="s">
         <v>89</v>
       </c>
@@ -4149,8 +4380,9 @@
       <c r="C65" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F65"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="42" t="s">
         <v>90</v>
       </c>
@@ -4160,8 +4392,9 @@
       <c r="C66" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F66"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="42" t="s">
         <v>91</v>
       </c>
@@ -4171,8 +4404,9 @@
       <c r="C67" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F67"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="42" t="s">
         <v>89</v>
       </c>
@@ -4182,8 +4416,9 @@
       <c r="C68" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F68"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="42" t="s">
         <v>90</v>
       </c>
@@ -4193,8 +4428,9 @@
       <c r="C69" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F69"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="42" t="s">
         <v>91</v>
       </c>
@@ -4204,8 +4440,9 @@
       <c r="C70" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="42" t="s">
         <v>89</v>
       </c>
@@ -4215,8 +4452,9 @@
       <c r="C71" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="42" t="s">
         <v>90</v>
       </c>
@@ -4226,8 +4464,9 @@
       <c r="C72" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="42" t="s">
         <v>91</v>
       </c>
@@ -4237,8 +4476,9 @@
       <c r="C73" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="42" t="s">
         <v>89</v>
       </c>
@@ -4248,8 +4488,9 @@
       <c r="C74" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="42" t="s">
         <v>90</v>
       </c>
@@ -4259,8 +4500,9 @@
       <c r="C75" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F75"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="42" t="s">
         <v>91</v>
       </c>
@@ -4270,8 +4512,9 @@
       <c r="C76" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F76"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="42" t="s">
         <v>89</v>
       </c>
@@ -4281,8 +4524,9 @@
       <c r="C77" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F77"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="42" t="s">
         <v>90</v>
       </c>
@@ -4292,8 +4536,9 @@
       <c r="C78" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F78"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="42" t="s">
         <v>91</v>
       </c>
@@ -4303,8 +4548,9 @@
       <c r="C79" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F79"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="42" t="s">
         <v>89</v>
       </c>
@@ -4314,8 +4560,9 @@
       <c r="C80" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F80"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="42" t="s">
         <v>90</v>
       </c>
@@ -4325,8 +4572,9 @@
       <c r="C81" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="42" t="s">
         <v>89</v>
       </c>
@@ -4336,8 +4584,9 @@
       <c r="C82" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F82"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="42" t="s">
         <v>90</v>
       </c>
@@ -4347,8 +4596,9 @@
       <c r="C83" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F83"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="42" t="s">
         <v>91</v>
       </c>
@@ -4358,8 +4608,9 @@
       <c r="C84" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="42" t="s">
         <v>89</v>
       </c>
@@ -4369,8 +4620,9 @@
       <c r="C85" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="42" t="s">
         <v>90</v>
       </c>
@@ -4380,8 +4632,9 @@
       <c r="C86" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="42" t="s">
         <v>91</v>
       </c>
@@ -4391,8 +4644,9 @@
       <c r="C87" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="42" t="s">
         <v>89</v>
       </c>
@@ -4402,8 +4656,9 @@
       <c r="C88" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="42" t="s">
         <v>90</v>
       </c>
@@ -4413,8 +4668,9 @@
       <c r="C89" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="42" t="s">
         <v>91</v>
       </c>
@@ -4424,8 +4680,9 @@
       <c r="C90" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="42" t="s">
         <v>89</v>
       </c>
@@ -4435,8 +4692,9 @@
       <c r="C91" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="42" t="s">
         <v>90</v>
       </c>
@@ -4446,8 +4704,9 @@
       <c r="C92" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="42" t="s">
         <v>91</v>
       </c>
@@ -4457,8 +4716,9 @@
       <c r="C93" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="42" t="s">
         <v>89</v>
       </c>
@@ -4468,8 +4728,9 @@
       <c r="C94" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="42" t="s">
         <v>90</v>
       </c>
@@ -4479,8 +4740,9 @@
       <c r="C95" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="42" t="s">
         <v>91</v>
       </c>
@@ -4490,8 +4752,9 @@
       <c r="C96" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="42" t="s">
         <v>89</v>
       </c>
@@ -4501,8 +4764,9 @@
       <c r="C97" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="42" t="s">
         <v>90</v>
       </c>
@@ -4512,8 +4776,9 @@
       <c r="C98" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="42" t="s">
         <v>91</v>
       </c>
@@ -4523,8 +4788,9 @@
       <c r="C99" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="42" t="s">
         <v>89</v>
       </c>
@@ -4534,8 +4800,9 @@
       <c r="C100" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="42" t="s">
         <v>90</v>
       </c>
@@ -4545,8 +4812,9 @@
       <c r="C101" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="42" t="s">
         <v>91</v>
       </c>
@@ -4556,8 +4824,9 @@
       <c r="C102" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="42" t="s">
         <v>89</v>
       </c>
@@ -4567,8 +4836,9 @@
       <c r="C103" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="42" t="s">
         <v>90</v>
       </c>
@@ -4578,8 +4848,9 @@
       <c r="C104" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="42" t="s">
         <v>91</v>
       </c>
@@ -4589,8 +4860,9 @@
       <c r="C105" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="42" t="s">
         <v>89</v>
       </c>
@@ -4600,8 +4872,9 @@
       <c r="C106" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="42" t="s">
         <v>90</v>
       </c>
@@ -4611,8 +4884,9 @@
       <c r="C107" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F107"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="42" t="s">
         <v>91</v>
       </c>
@@ -4622,8 +4896,9 @@
       <c r="C108" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F108"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="42" t="s">
         <v>89</v>
       </c>
@@ -4633,8 +4908,9 @@
       <c r="C109" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F109"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="42" t="s">
         <v>90</v>
       </c>
@@ -4644,8 +4920,9 @@
       <c r="C110" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="42" t="s">
         <v>91</v>
       </c>
@@ -4655,8 +4932,9 @@
       <c r="C111" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="42" t="s">
         <v>89</v>
       </c>
@@ -4666,8 +4944,9 @@
       <c r="C112" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="42" t="s">
         <v>90</v>
       </c>
@@ -4677,8 +4956,9 @@
       <c r="C113" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="42" t="s">
         <v>91</v>
       </c>
@@ -4688,8 +4968,9 @@
       <c r="C114" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="42" t="s">
         <v>89</v>
       </c>
@@ -4699,8 +4980,9 @@
       <c r="C115" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="42" t="s">
         <v>90</v>
       </c>
@@ -4710,8 +4992,9 @@
       <c r="C116" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="42" t="s">
         <v>91</v>
       </c>
@@ -4721,8 +5004,9 @@
       <c r="C117" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="42" t="s">
         <v>89</v>
       </c>
@@ -4732,8 +5016,9 @@
       <c r="C118" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="42" t="s">
         <v>90</v>
       </c>
@@ -4743,8 +5028,9 @@
       <c r="C119" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="42" t="s">
         <v>91</v>
       </c>
@@ -4754,8 +5040,9 @@
       <c r="C120" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="42" t="s">
         <v>89</v>
       </c>
@@ -4765,8 +5052,9 @@
       <c r="C121" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="42" t="s">
         <v>90</v>
       </c>
@@ -4776,8 +5064,9 @@
       <c r="C122" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="42" t="s">
         <v>91</v>
       </c>
@@ -4787,8 +5076,9 @@
       <c r="C123" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="42" t="s">
         <v>89</v>
       </c>
@@ -4798,8 +5088,9 @@
       <c r="C124" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="42" t="s">
         <v>90</v>
       </c>
@@ -4809,8 +5100,9 @@
       <c r="C125" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="42" t="s">
         <v>91</v>
       </c>
@@ -4820,8 +5112,9 @@
       <c r="C126" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="42" t="s">
         <v>89</v>
       </c>
@@ -4831,8 +5124,9 @@
       <c r="C127" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="42" t="s">
         <v>90</v>
       </c>
@@ -4842,8 +5136,9 @@
       <c r="C128" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="42" t="s">
         <v>91</v>
       </c>
@@ -4853,8 +5148,9 @@
       <c r="C129" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="42" t="s">
         <v>89</v>
       </c>
@@ -4864,8 +5160,9 @@
       <c r="C130" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="42" t="s">
         <v>90</v>
       </c>
@@ -4875,8 +5172,9 @@
       <c r="C131" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="42" t="s">
         <v>91</v>
       </c>
@@ -4886,8 +5184,9 @@
       <c r="C132" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F132"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="42" t="s">
         <v>89</v>
       </c>
@@ -4897,8 +5196,9 @@
       <c r="C133" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F133"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="42" t="s">
         <v>90</v>
       </c>
@@ -4908,8 +5208,9 @@
       <c r="C134" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F134"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="42" t="s">
         <v>91</v>
       </c>
@@ -4919,8 +5220,9 @@
       <c r="C135" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F135"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="42" t="s">
         <v>89</v>
       </c>
@@ -4930,8 +5232,9 @@
       <c r="C136" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F136"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="42" t="s">
         <v>90</v>
       </c>
@@ -4941,8 +5244,9 @@
       <c r="C137" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F137"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="42" t="s">
         <v>91</v>
       </c>
@@ -4952,8 +5256,9 @@
       <c r="C138" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F138"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="42" t="s">
         <v>89</v>
       </c>
@@ -4963,8 +5268,9 @@
       <c r="C139" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F139"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="42" t="s">
         <v>90</v>
       </c>
@@ -4974,8 +5280,9 @@
       <c r="C140" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F140"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="42" t="s">
         <v>91</v>
       </c>
@@ -4985,8 +5292,9 @@
       <c r="C141" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F141"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="42" t="s">
         <v>89</v>
       </c>
@@ -4996,8 +5304,9 @@
       <c r="C142" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F142"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="42" t="s">
         <v>90</v>
       </c>
@@ -5007,8 +5316,9 @@
       <c r="C143" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F143"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="42" t="s">
         <v>91</v>
       </c>
@@ -5018,8 +5328,9 @@
       <c r="C144" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F144"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="42" t="s">
         <v>89</v>
       </c>
@@ -5029,8 +5340,9 @@
       <c r="C145" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F145"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="42" t="s">
         <v>90</v>
       </c>
@@ -5040,8 +5352,9 @@
       <c r="C146" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F146"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="42" t="s">
         <v>91</v>
       </c>
@@ -5051,8 +5364,9 @@
       <c r="C147" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F147"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="42" t="s">
         <v>89</v>
       </c>
@@ -5062,8 +5376,9 @@
       <c r="C148" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F148"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="42" t="s">
         <v>90</v>
       </c>
@@ -5073,8 +5388,9 @@
       <c r="C149" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F149"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="42" t="s">
         <v>91</v>
       </c>
@@ -5084,8 +5400,9 @@
       <c r="C150" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F150"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="42" t="s">
         <v>89</v>
       </c>
@@ -5095,8 +5412,9 @@
       <c r="C151" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F151"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="42" t="s">
         <v>90</v>
       </c>
@@ -5106,8 +5424,9 @@
       <c r="C152" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F152"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="42" t="s">
         <v>91</v>
       </c>
@@ -5117,8 +5436,9 @@
       <c r="C153" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F153"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="42" t="s">
         <v>89</v>
       </c>
@@ -5128,8 +5448,9 @@
       <c r="C154" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F154"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="42" t="s">
         <v>90</v>
       </c>
@@ -5139,8 +5460,9 @@
       <c r="C155" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F155"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="42" t="s">
         <v>91</v>
       </c>
@@ -5150,8 +5472,9 @@
       <c r="C156" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F156"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="42" t="s">
         <v>89</v>
       </c>
@@ -5161,8 +5484,9 @@
       <c r="C157" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F157"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="42" t="s">
         <v>90</v>
       </c>
@@ -5172,8 +5496,9 @@
       <c r="C158" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="42" t="s">
         <v>91</v>
       </c>
@@ -5183,8 +5508,9 @@
       <c r="C159" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F159"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="42" t="s">
         <v>89</v>
       </c>
@@ -5194,8 +5520,9 @@
       <c r="C160" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F160"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="42" t="s">
         <v>90</v>
       </c>
@@ -5205,8 +5532,9 @@
       <c r="C161" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F161"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="42" t="s">
         <v>89</v>
       </c>
@@ -5216,8 +5544,9 @@
       <c r="C162" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F162"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="42" t="s">
         <v>90</v>
       </c>
@@ -5227,8 +5556,9 @@
       <c r="C163" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F163"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="42" t="s">
         <v>91</v>
       </c>
@@ -5238,8 +5568,9 @@
       <c r="C164" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F164"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="42" t="s">
         <v>89</v>
       </c>
@@ -5249,8 +5580,9 @@
       <c r="C165" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F165"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="42" t="s">
         <v>90</v>
       </c>
@@ -5260,8 +5592,9 @@
       <c r="C166" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F166"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="42" t="s">
         <v>91</v>
       </c>
@@ -5271,8 +5604,9 @@
       <c r="C167" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F167"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="42" t="s">
         <v>89</v>
       </c>
@@ -5282,8 +5616,9 @@
       <c r="C168" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F168"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="42" t="s">
         <v>90</v>
       </c>
@@ -5293,8 +5628,9 @@
       <c r="C169" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F169"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="42" t="s">
         <v>91</v>
       </c>
@@ -5304,8 +5640,9 @@
       <c r="C170" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F170"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="42" t="s">
         <v>89</v>
       </c>
@@ -5315,8 +5652,9 @@
       <c r="C171" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F171"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="42" t="s">
         <v>90</v>
       </c>
@@ -5326,8 +5664,9 @@
       <c r="C172" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F172"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="42" t="s">
         <v>91</v>
       </c>
@@ -5337,8 +5676,9 @@
       <c r="C173" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F173"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="42" t="s">
         <v>89</v>
       </c>
@@ -5348,8 +5688,9 @@
       <c r="C174" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F174"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="42" t="s">
         <v>90</v>
       </c>
@@ -5359,8 +5700,9 @@
       <c r="C175" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F175"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="42" t="s">
         <v>91</v>
       </c>
@@ -5370,8 +5712,9 @@
       <c r="C176" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F176"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="42" t="s">
         <v>89</v>
       </c>
@@ -5381,8 +5724,9 @@
       <c r="C177" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F177"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="42" t="s">
         <v>90</v>
       </c>
@@ -5392,8 +5736,9 @@
       <c r="C178" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F178"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="42" t="s">
         <v>91</v>
       </c>
@@ -5403,8 +5748,9 @@
       <c r="C179" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F179"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="42" t="s">
         <v>89</v>
       </c>
@@ -5414,8 +5760,9 @@
       <c r="C180" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F180"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="42" t="s">
         <v>90</v>
       </c>
@@ -5425,8 +5772,9 @@
       <c r="C181" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F181"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="42" t="s">
         <v>91</v>
       </c>
@@ -5436,8 +5784,9 @@
       <c r="C182" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F182"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="42" t="s">
         <v>89</v>
       </c>
@@ -5447,8 +5796,9 @@
       <c r="C183" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F183"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="42" t="s">
         <v>90</v>
       </c>
@@ -5458,8 +5808,9 @@
       <c r="C184" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F184"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="42" t="s">
         <v>91</v>
       </c>
@@ -5469,8 +5820,9 @@
       <c r="C185" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F185"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="42" t="s">
         <v>89</v>
       </c>
@@ -5480,8 +5832,9 @@
       <c r="C186" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F186"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="42" t="s">
         <v>90</v>
       </c>
@@ -5491,8 +5844,9 @@
       <c r="C187" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F187"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="42" t="s">
         <v>91</v>
       </c>
@@ -5502,8 +5856,9 @@
       <c r="C188" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F188"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="42" t="s">
         <v>89</v>
       </c>
@@ -5513,8 +5868,9 @@
       <c r="C189" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F189"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="42" t="s">
         <v>90</v>
       </c>
@@ -5524,8 +5880,9 @@
       <c r="C190" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F190"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="42" t="s">
         <v>91</v>
       </c>
@@ -5535,8 +5892,9 @@
       <c r="C191" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F191"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="42" t="s">
         <v>89</v>
       </c>
@@ -5546,8 +5904,9 @@
       <c r="C192" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F192"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="42" t="s">
         <v>90</v>
       </c>
@@ -5557,8 +5916,9 @@
       <c r="C193" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F193"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="42" t="s">
         <v>91</v>
       </c>
@@ -5568,8 +5928,9 @@
       <c r="C194" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F194"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="42" t="s">
         <v>89</v>
       </c>
@@ -5579,8 +5940,9 @@
       <c r="C195" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F195"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="42" t="s">
         <v>90</v>
       </c>
@@ -5590,8 +5952,9 @@
       <c r="C196" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F196"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="42" t="s">
         <v>91</v>
       </c>
@@ -5601,8 +5964,9 @@
       <c r="C197" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F197"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="42" t="s">
         <v>89</v>
       </c>
@@ -5612,8 +5976,9 @@
       <c r="C198" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F198"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="42" t="s">
         <v>90</v>
       </c>
@@ -5623,8 +5988,9 @@
       <c r="C199" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F199"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="42" t="s">
         <v>91</v>
       </c>
@@ -5634,8 +6000,9 @@
       <c r="C200" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F200"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="42" t="s">
         <v>89</v>
       </c>
@@ -5645,8 +6012,9 @@
       <c r="C201" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F201"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="42" t="s">
         <v>90</v>
       </c>
@@ -5656,8 +6024,9 @@
       <c r="C202" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F202"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="42" t="s">
         <v>91</v>
       </c>
@@ -5667,8 +6036,9 @@
       <c r="C203" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F203"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="42" t="s">
         <v>89</v>
       </c>
@@ -5678,8 +6048,9 @@
       <c r="C204" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F204"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="42" t="s">
         <v>90</v>
       </c>
@@ -5689,8 +6060,9 @@
       <c r="C205" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F205"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="42" t="s">
         <v>91</v>
       </c>
@@ -5700,8 +6072,9 @@
       <c r="C206" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F206"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="42" t="s">
         <v>89</v>
       </c>
@@ -5711,8 +6084,9 @@
       <c r="C207" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F207"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="42" t="s">
         <v>90</v>
       </c>
@@ -5722,8 +6096,9 @@
       <c r="C208" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F208"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="42" t="s">
         <v>91</v>
       </c>
@@ -5733,8 +6108,9 @@
       <c r="C209" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F209"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="42" t="s">
         <v>89</v>
       </c>
@@ -5744,8 +6120,9 @@
       <c r="C210" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F210"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="42" t="s">
         <v>90</v>
       </c>
@@ -5755,8 +6132,9 @@
       <c r="C211" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F211"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="42" t="s">
         <v>91</v>
       </c>
@@ -5766,8 +6144,9 @@
       <c r="C212" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F212"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="42" t="s">
         <v>89</v>
       </c>
@@ -5777,8 +6156,9 @@
       <c r="C213" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F213"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="42" t="s">
         <v>90</v>
       </c>
@@ -5788,8 +6168,9 @@
       <c r="C214" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F214"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="42" t="s">
         <v>91</v>
       </c>
@@ -5799,8 +6180,9 @@
       <c r="C215" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F215"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="42" t="s">
         <v>89</v>
       </c>
@@ -5810,8 +6192,9 @@
       <c r="C216" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F216"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="42" t="s">
         <v>90</v>
       </c>
@@ -5821,8 +6204,9 @@
       <c r="C217" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F217"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="42" t="s">
         <v>91</v>
       </c>
@@ -5832,8 +6216,9 @@
       <c r="C218" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F218"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="42" t="s">
         <v>89</v>
       </c>
@@ -5843,8 +6228,9 @@
       <c r="C219" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F219"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="42" t="s">
         <v>90</v>
       </c>
@@ -5854,8 +6240,9 @@
       <c r="C220" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F220"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="42" t="s">
         <v>91</v>
       </c>
@@ -5865,8 +6252,9 @@
       <c r="C221" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F221"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="42" t="s">
         <v>89</v>
       </c>
@@ -5876,8 +6264,9 @@
       <c r="C222" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F222"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="42" t="s">
         <v>90</v>
       </c>
@@ -5887,8 +6276,9 @@
       <c r="C223" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F223"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="42" t="s">
         <v>91</v>
       </c>
@@ -5898,8 +6288,9 @@
       <c r="C224" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F224"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="42" t="s">
         <v>89</v>
       </c>
@@ -5909,8 +6300,9 @@
       <c r="C225" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F225"/>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="42" t="s">
         <v>90</v>
       </c>
@@ -5920,8 +6312,9 @@
       <c r="C226" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F226"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="42" t="s">
         <v>91</v>
       </c>
@@ -5931,8 +6324,9 @@
       <c r="C227" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F227"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="42" t="s">
         <v>89</v>
       </c>
@@ -5942,8 +6336,9 @@
       <c r="C228" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F228"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="42" t="s">
         <v>90</v>
       </c>
@@ -5953,8 +6348,9 @@
       <c r="C229" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F229"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="42" t="s">
         <v>91</v>
       </c>
@@ -5964,8 +6360,9 @@
       <c r="C230" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F230"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="42" t="s">
         <v>89</v>
       </c>
@@ -5975,8 +6372,9 @@
       <c r="C231" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F231"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="42" t="s">
         <v>90</v>
       </c>
@@ -5986,8 +6384,9 @@
       <c r="C232" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F232"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="42" t="s">
         <v>91</v>
       </c>
@@ -5997,8 +6396,9 @@
       <c r="C233" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F233"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="42" t="s">
         <v>89</v>
       </c>
@@ -6008,8 +6408,9 @@
       <c r="C234" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F234"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="42" t="s">
         <v>90</v>
       </c>
@@ -6019,8 +6420,9 @@
       <c r="C235" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F235"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="42" t="s">
         <v>91</v>
       </c>
@@ -6030,8 +6432,9 @@
       <c r="C236" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F236"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="42" t="s">
         <v>89</v>
       </c>
@@ -6041,8 +6444,9 @@
       <c r="C237" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F237"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="42" t="s">
         <v>90</v>
       </c>
@@ -6052,8 +6456,9 @@
       <c r="C238" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F238"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="42" t="s">
         <v>91</v>
       </c>
@@ -6063,8 +6468,9 @@
       <c r="C239" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F239"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="42" t="s">
         <v>89</v>
       </c>
@@ -6074,8 +6480,9 @@
       <c r="C240" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F240"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="42" t="s">
         <v>90</v>
       </c>
@@ -6085,8 +6492,9 @@
       <c r="C241" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F241"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="42" t="s">
         <v>89</v>
       </c>
@@ -6096,8 +6504,9 @@
       <c r="C242" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F242"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="42" t="s">
         <v>90</v>
       </c>
@@ -6107,8 +6516,9 @@
       <c r="C243" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F243"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="42" t="s">
         <v>91</v>
       </c>
@@ -6118,8 +6528,9 @@
       <c r="C244" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F244"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="42" t="s">
         <v>89</v>
       </c>
@@ -6129,8 +6540,9 @@
       <c r="C245" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F245"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="42" t="s">
         <v>90</v>
       </c>
@@ -6140,8 +6552,9 @@
       <c r="C246" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F246"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="42" t="s">
         <v>91</v>
       </c>
@@ -6151,8 +6564,9 @@
       <c r="C247" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F247"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="42" t="s">
         <v>89</v>
       </c>
@@ -6162,8 +6576,9 @@
       <c r="C248" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F248"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="42" t="s">
         <v>90</v>
       </c>
@@ -6173,8 +6588,9 @@
       <c r="C249" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F249"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="42" t="s">
         <v>91</v>
       </c>
@@ -6184,8 +6600,9 @@
       <c r="C250" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F250"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="42" t="s">
         <v>89</v>
       </c>
@@ -6195,8 +6612,9 @@
       <c r="C251" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F251"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="42" t="s">
         <v>90</v>
       </c>
@@ -6206,8 +6624,9 @@
       <c r="C252" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F252"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="42" t="s">
         <v>91</v>
       </c>
@@ -6217,8 +6636,9 @@
       <c r="C253" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F253"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="42" t="s">
         <v>89</v>
       </c>
@@ -6228,8 +6648,9 @@
       <c r="C254" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F254"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="42" t="s">
         <v>90</v>
       </c>
@@ -6239,8 +6660,9 @@
       <c r="C255" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F255"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="42" t="s">
         <v>91</v>
       </c>
@@ -6250,8 +6672,9 @@
       <c r="C256" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F256"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="42" t="s">
         <v>89</v>
       </c>
@@ -6261,8 +6684,9 @@
       <c r="C257" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F257"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="42" t="s">
         <v>90</v>
       </c>
@@ -6272,8 +6696,9 @@
       <c r="C258" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F258"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="42" t="s">
         <v>91</v>
       </c>
@@ -6283,8 +6708,9 @@
       <c r="C259" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F259"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="42" t="s">
         <v>89</v>
       </c>
@@ -6294,8 +6720,9 @@
       <c r="C260" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F260"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="42" t="s">
         <v>90</v>
       </c>
@@ -6305,8 +6732,9 @@
       <c r="C261" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F261"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="42" t="s">
         <v>91</v>
       </c>
@@ -6316,8 +6744,9 @@
       <c r="C262" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F262"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="42" t="s">
         <v>89</v>
       </c>
@@ -6327,8 +6756,9 @@
       <c r="C263" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F263"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="42" t="s">
         <v>90</v>
       </c>
@@ -6338,8 +6768,9 @@
       <c r="C264" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F264"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="42" t="s">
         <v>91</v>
       </c>
@@ -6349,8 +6780,9 @@
       <c r="C265" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F265"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="42" t="s">
         <v>89</v>
       </c>
@@ -6360,8 +6792,9 @@
       <c r="C266" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F266"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="42" t="s">
         <v>90</v>
       </c>
@@ -6371,8 +6804,9 @@
       <c r="C267" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F267"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="42" t="s">
         <v>91</v>
       </c>
@@ -6382,8 +6816,9 @@
       <c r="C268" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F268"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="42" t="s">
         <v>89</v>
       </c>
@@ -6393,8 +6828,9 @@
       <c r="C269" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F269"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="42" t="s">
         <v>90</v>
       </c>
@@ -6404,8 +6840,9 @@
       <c r="C270" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F270"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="42" t="s">
         <v>91</v>
       </c>
@@ -6415,8 +6852,9 @@
       <c r="C271" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F271"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="42" t="s">
         <v>89</v>
       </c>
@@ -6426,8 +6864,9 @@
       <c r="C272" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F272"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="42" t="s">
         <v>90</v>
       </c>
@@ -6437,8 +6876,9 @@
       <c r="C273" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F273"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="42" t="s">
         <v>91</v>
       </c>
@@ -6448,8 +6888,9 @@
       <c r="C274" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F274"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="42" t="s">
         <v>89</v>
       </c>
@@ -6459,8 +6900,9 @@
       <c r="C275" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F275"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="42" t="s">
         <v>90</v>
       </c>
@@ -6470,8 +6912,9 @@
       <c r="C276" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F276"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="42" t="s">
         <v>91</v>
       </c>
@@ -6481,8 +6924,9 @@
       <c r="C277" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F277"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="42" t="s">
         <v>89</v>
       </c>
@@ -6492,8 +6936,9 @@
       <c r="C278" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F278"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="42" t="s">
         <v>90</v>
       </c>
@@ -6503,8 +6948,9 @@
       <c r="C279" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F279"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="42" t="s">
         <v>91</v>
       </c>
@@ -6514,8 +6960,9 @@
       <c r="C280" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F280"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="42" t="s">
         <v>89</v>
       </c>
@@ -6525,8 +6972,9 @@
       <c r="C281" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F281"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="42" t="s">
         <v>90</v>
       </c>
@@ -6536,8 +6984,9 @@
       <c r="C282" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F282"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="42" t="s">
         <v>91</v>
       </c>
@@ -6547,8 +6996,9 @@
       <c r="C283" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F283"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="42" t="s">
         <v>89</v>
       </c>
@@ -6558,8 +7008,9 @@
       <c r="C284" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F284"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="42" t="s">
         <v>90</v>
       </c>
@@ -6569,8 +7020,9 @@
       <c r="C285" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F285"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="42" t="s">
         <v>91</v>
       </c>
@@ -6580,8 +7032,9 @@
       <c r="C286" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F286"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="42" t="s">
         <v>89</v>
       </c>
@@ -6591,8 +7044,9 @@
       <c r="C287" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F287"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="42" t="s">
         <v>90</v>
       </c>
@@ -6602,8 +7056,9 @@
       <c r="C288" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F288"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="42" t="s">
         <v>91</v>
       </c>
@@ -6613,8 +7068,9 @@
       <c r="C289" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F289"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="42" t="s">
         <v>89</v>
       </c>
@@ -6624,8 +7080,9 @@
       <c r="C290" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F290"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="42" t="s">
         <v>90</v>
       </c>
@@ -6635,8 +7092,9 @@
       <c r="C291" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F291"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="42" t="s">
         <v>91</v>
       </c>
@@ -6646,8 +7104,9 @@
       <c r="C292" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F292"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="42" t="s">
         <v>89</v>
       </c>
@@ -6657,8 +7116,9 @@
       <c r="C293" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F293"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="42" t="s">
         <v>90</v>
       </c>
@@ -6668,8 +7128,9 @@
       <c r="C294" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F294"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="42" t="s">
         <v>91</v>
       </c>
@@ -6679,8 +7140,9 @@
       <c r="C295" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F295"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="42" t="s">
         <v>89</v>
       </c>
@@ -6690,8 +7152,9 @@
       <c r="C296" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F296"/>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="42" t="s">
         <v>90</v>
       </c>
@@ -6701,8 +7164,9 @@
       <c r="C297" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F297"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="42" t="s">
         <v>91</v>
       </c>
@@ -6712,8 +7176,9 @@
       <c r="C298" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F298"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="42" t="s">
         <v>89</v>
       </c>
@@ -6723,8 +7188,9 @@
       <c r="C299" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F299"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="42" t="s">
         <v>90</v>
       </c>
@@ -6734,8 +7200,9 @@
       <c r="C300" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F300"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="42" t="s">
         <v>91</v>
       </c>
@@ -6745,8 +7212,9 @@
       <c r="C301" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F301"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="42" t="s">
         <v>89</v>
       </c>
@@ -6756,8 +7224,9 @@
       <c r="C302" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F302"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="42" t="s">
         <v>90</v>
       </c>
@@ -6767,8 +7236,9 @@
       <c r="C303" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F303"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="42" t="s">
         <v>91</v>
       </c>
@@ -6778,8 +7248,9 @@
       <c r="C304" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F304"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="42" t="s">
         <v>89</v>
       </c>
@@ -6789,8 +7260,9 @@
       <c r="C305" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F305"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="42" t="s">
         <v>90</v>
       </c>
@@ -6800,8 +7272,9 @@
       <c r="C306" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F306"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="42" t="s">
         <v>91</v>
       </c>
@@ -6811,8 +7284,9 @@
       <c r="C307" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F307"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="42" t="s">
         <v>89</v>
       </c>
@@ -6822,8 +7296,9 @@
       <c r="C308" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F308"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="42" t="s">
         <v>90</v>
       </c>
@@ -6833,8 +7308,9 @@
       <c r="C309" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F309"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="42" t="s">
         <v>91</v>
       </c>
@@ -6844,8 +7320,9 @@
       <c r="C310" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F310"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="42" t="s">
         <v>89</v>
       </c>
@@ -6855,8 +7332,9 @@
       <c r="C311" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F311"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="42" t="s">
         <v>90</v>
       </c>
@@ -6866,8 +7344,9 @@
       <c r="C312" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F312"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="42" t="s">
         <v>91</v>
       </c>
@@ -6877,8 +7356,9 @@
       <c r="C313" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F313"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="42" t="s">
         <v>89</v>
       </c>
@@ -6888,8 +7368,9 @@
       <c r="C314" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F314"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="42" t="s">
         <v>90</v>
       </c>
@@ -6899,8 +7380,9 @@
       <c r="C315" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F315"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="42" t="s">
         <v>91</v>
       </c>
@@ -6910,8 +7392,9 @@
       <c r="C316" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F316"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="42" t="s">
         <v>89</v>
       </c>
@@ -6921,8 +7404,9 @@
       <c r="C317" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F317"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="42" t="s">
         <v>90</v>
       </c>
@@ -6932,8 +7416,9 @@
       <c r="C318" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F318"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="42" t="s">
         <v>91</v>
       </c>
@@ -6943,8 +7428,9 @@
       <c r="C319" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F319"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="42" t="s">
         <v>89</v>
       </c>
@@ -6954,8 +7440,9 @@
       <c r="C320" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F320"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="42" t="s">
         <v>90</v>
       </c>
@@ -6965,8 +7452,9 @@
       <c r="C321" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F321"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="42" t="s">
         <v>89</v>
       </c>
@@ -6976,8 +7464,9 @@
       <c r="C322" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F322"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="42" t="s">
         <v>90</v>
       </c>
@@ -6987,8 +7476,9 @@
       <c r="C323" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F323"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="42" t="s">
         <v>91</v>
       </c>
@@ -6998,8 +7488,9 @@
       <c r="C324" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F324"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="42" t="s">
         <v>89</v>
       </c>
@@ -7009,8 +7500,9 @@
       <c r="C325" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F325"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="42" t="s">
         <v>90</v>
       </c>
@@ -7020,8 +7512,9 @@
       <c r="C326" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F326"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="42" t="s">
         <v>91</v>
       </c>
@@ -7031,8 +7524,9 @@
       <c r="C327" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F327"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="42" t="s">
         <v>89</v>
       </c>
@@ -7042,8 +7536,9 @@
       <c r="C328" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F328"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="42" t="s">
         <v>90</v>
       </c>
@@ -7053,8 +7548,9 @@
       <c r="C329" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F329"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="42" t="s">
         <v>91</v>
       </c>
@@ -7064,8 +7560,9 @@
       <c r="C330" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F330"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="42" t="s">
         <v>89</v>
       </c>
@@ -7075,8 +7572,9 @@
       <c r="C331" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F331"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="42" t="s">
         <v>90</v>
       </c>
@@ -7086,8 +7584,9 @@
       <c r="C332" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F332"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="42" t="s">
         <v>91</v>
       </c>
@@ -7097,8 +7596,9 @@
       <c r="C333" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F333"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="42" t="s">
         <v>89</v>
       </c>
@@ -7108,8 +7608,9 @@
       <c r="C334" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F334"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="42" t="s">
         <v>90</v>
       </c>
@@ -7119,8 +7620,9 @@
       <c r="C335" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F335"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="42" t="s">
         <v>91</v>
       </c>
@@ -7130,8 +7632,9 @@
       <c r="C336" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F336"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="42" t="s">
         <v>89</v>
       </c>
@@ -7141,8 +7644,9 @@
       <c r="C337" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F337"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="42" t="s">
         <v>90</v>
       </c>
@@ -7152,8 +7656,9 @@
       <c r="C338" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F338"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="42" t="s">
         <v>91</v>
       </c>
@@ -7163,8 +7668,9 @@
       <c r="C339" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F339"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="42" t="s">
         <v>89</v>
       </c>
@@ -7174,8 +7680,9 @@
       <c r="C340" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F340"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="42" t="s">
         <v>90</v>
       </c>
@@ -7185,8 +7692,9 @@
       <c r="C341" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F341"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="42" t="s">
         <v>91</v>
       </c>
@@ -7196,8 +7704,9 @@
       <c r="C342" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F342"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="42" t="s">
         <v>89</v>
       </c>
@@ -7207,8 +7716,9 @@
       <c r="C343" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F343"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="42" t="s">
         <v>90</v>
       </c>
@@ -7218,8 +7728,9 @@
       <c r="C344" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F344"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="42" t="s">
         <v>91</v>
       </c>
@@ -7229,8 +7740,9 @@
       <c r="C345" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F345"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="42" t="s">
         <v>89</v>
       </c>
@@ -7240,8 +7752,9 @@
       <c r="C346" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F346"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="42" t="s">
         <v>90</v>
       </c>
@@ -7251,8 +7764,9 @@
       <c r="C347" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F347"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="42" t="s">
         <v>91</v>
       </c>
@@ -7262,8 +7776,9 @@
       <c r="C348" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F348"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="42" t="s">
         <v>89</v>
       </c>
@@ -7273,8 +7788,9 @@
       <c r="C349" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F349"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="42" t="s">
         <v>90</v>
       </c>
@@ -7284,8 +7800,9 @@
       <c r="C350" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F350"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="42" t="s">
         <v>91</v>
       </c>
@@ -7295,8 +7812,9 @@
       <c r="C351" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F351"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="42" t="s">
         <v>89</v>
       </c>
@@ -7306,8 +7824,9 @@
       <c r="C352" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F352"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="42" t="s">
         <v>90</v>
       </c>
@@ -7317,8 +7836,9 @@
       <c r="C353" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F353"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="42" t="s">
         <v>91</v>
       </c>
@@ -7328,8 +7848,9 @@
       <c r="C354" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F354"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="42" t="s">
         <v>89</v>
       </c>
@@ -7339,8 +7860,9 @@
       <c r="C355" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F355"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="42" t="s">
         <v>90</v>
       </c>
@@ -7350,8 +7872,9 @@
       <c r="C356" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F356"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="42" t="s">
         <v>91</v>
       </c>
@@ -7361,8 +7884,9 @@
       <c r="C357" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F357"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="42" t="s">
         <v>89</v>
       </c>
@@ -7372,8 +7896,9 @@
       <c r="C358" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F358"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="42" t="s">
         <v>90</v>
       </c>
@@ -7383,8 +7908,9 @@
       <c r="C359" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F359"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="42" t="s">
         <v>91</v>
       </c>
@@ -7394,8 +7920,9 @@
       <c r="C360" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F360"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="42" t="s">
         <v>89</v>
       </c>
@@ -7405,8 +7932,9 @@
       <c r="C361" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F361"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="42" t="s">
         <v>90</v>
       </c>
@@ -7416,8 +7944,9 @@
       <c r="C362" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F362"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="42" t="s">
         <v>91</v>
       </c>
@@ -7427,8 +7956,9 @@
       <c r="C363" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F363"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="42" t="s">
         <v>89</v>
       </c>
@@ -7438,8 +7968,9 @@
       <c r="C364" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F364"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="42" t="s">
         <v>90</v>
       </c>
@@ -7449,8 +7980,9 @@
       <c r="C365" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F365"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="42" t="s">
         <v>91</v>
       </c>
@@ -7460,8 +7992,9 @@
       <c r="C366" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F366"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="42" t="s">
         <v>89</v>
       </c>
@@ -7471,8 +8004,9 @@
       <c r="C367" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F367"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="42" t="s">
         <v>90</v>
       </c>
@@ -7482,8 +8016,9 @@
       <c r="C368" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F368"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="42" t="s">
         <v>91</v>
       </c>
@@ -7493,8 +8028,9 @@
       <c r="C369" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F369"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="42" t="s">
         <v>89</v>
       </c>
@@ -7504,8 +8040,9 @@
       <c r="C370" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F370"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="42" t="s">
         <v>90</v>
       </c>
@@ -7515,8 +8052,9 @@
       <c r="C371" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F371"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="42" t="s">
         <v>91</v>
       </c>
@@ -7526,8 +8064,9 @@
       <c r="C372" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F372"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="42" t="s">
         <v>89</v>
       </c>
@@ -7537,8 +8076,9 @@
       <c r="C373" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F373"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="42" t="s">
         <v>90</v>
       </c>
@@ -7548,8 +8088,9 @@
       <c r="C374" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F374"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="42" t="s">
         <v>91</v>
       </c>
@@ -7559,8 +8100,9 @@
       <c r="C375" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F375"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="42" t="s">
         <v>89</v>
       </c>
@@ -7570,8 +8112,9 @@
       <c r="C376" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F376"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="42" t="s">
         <v>90</v>
       </c>
@@ -7581,8 +8124,9 @@
       <c r="C377" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F377"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="42" t="s">
         <v>91</v>
       </c>
@@ -7592,8 +8136,9 @@
       <c r="C378" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F378"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="42" t="s">
         <v>89</v>
       </c>
@@ -7603,8 +8148,9 @@
       <c r="C379" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F379"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="42" t="s">
         <v>90</v>
       </c>
@@ -7614,8 +8160,9 @@
       <c r="C380" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F380"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="42" t="s">
         <v>91</v>
       </c>
@@ -7625,8 +8172,9 @@
       <c r="C381" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F381"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="42" t="s">
         <v>89</v>
       </c>
@@ -7636,8 +8184,9 @@
       <c r="C382" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F382"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="42" t="s">
         <v>90</v>
       </c>
@@ -7647,8 +8196,9 @@
       <c r="C383" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F383"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="42" t="s">
         <v>91</v>
       </c>
@@ -7658,8 +8208,9 @@
       <c r="C384" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F384"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="42" t="s">
         <v>89</v>
       </c>
@@ -7669,8 +8220,9 @@
       <c r="C385" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F385"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="42" t="s">
         <v>90</v>
       </c>
@@ -7680,8 +8232,9 @@
       <c r="C386" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F386"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="42" t="s">
         <v>91</v>
       </c>
@@ -7691,8 +8244,9 @@
       <c r="C387" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F387"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="42" t="s">
         <v>89</v>
       </c>
@@ -7702,8 +8256,9 @@
       <c r="C388" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F388"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="42" t="s">
         <v>90</v>
       </c>
@@ -7713,8 +8268,9 @@
       <c r="C389" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F389"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="42" t="s">
         <v>91</v>
       </c>
@@ -7724,8 +8280,9 @@
       <c r="C390" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F390"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="42" t="s">
         <v>89</v>
       </c>
@@ -7735,8 +8292,9 @@
       <c r="C391" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F391"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="42" t="s">
         <v>90</v>
       </c>
@@ -7746,8 +8304,9 @@
       <c r="C392" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F392"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="42" t="s">
         <v>91</v>
       </c>
@@ -7757,8 +8316,9 @@
       <c r="C393" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F393"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="42" t="s">
         <v>89</v>
       </c>
@@ -7768,8 +8328,9 @@
       <c r="C394" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F394"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="42" t="s">
         <v>90</v>
       </c>
@@ -7779,8 +8340,9 @@
       <c r="C395" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F395"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="42" t="s">
         <v>91</v>
       </c>
@@ -7790,8 +8352,9 @@
       <c r="C396" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F396"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="42" t="s">
         <v>89</v>
       </c>
@@ -7801,8 +8364,9 @@
       <c r="C397" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F397"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="42" t="s">
         <v>90</v>
       </c>
@@ -7812,8 +8376,9 @@
       <c r="C398" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F398"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="42" t="s">
         <v>91</v>
       </c>
@@ -7823,8 +8388,9 @@
       <c r="C399" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F399"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="42" t="s">
         <v>89</v>
       </c>
@@ -7834,8 +8400,9 @@
       <c r="C400" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F400"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="42" t="s">
         <v>90</v>
       </c>
@@ -7845,8 +8412,9 @@
       <c r="C401" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F401"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="42" t="s">
         <v>89</v>
       </c>
@@ -7856,8 +8424,9 @@
       <c r="C402" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F402"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="42" t="s">
         <v>90</v>
       </c>
@@ -7867,8 +8436,9 @@
       <c r="C403" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F403"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="42" t="s">
         <v>91</v>
       </c>
@@ -7878,8 +8448,9 @@
       <c r="C404" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F404"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="42" t="s">
         <v>89</v>
       </c>
@@ -7889,8 +8460,9 @@
       <c r="C405" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F405"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="42" t="s">
         <v>90</v>
       </c>
@@ -7900,8 +8472,9 @@
       <c r="C406" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F406"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="42" t="s">
         <v>91</v>
       </c>
@@ -7911,8 +8484,9 @@
       <c r="C407" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F407"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="42" t="s">
         <v>89</v>
       </c>
@@ -7922,8 +8496,9 @@
       <c r="C408" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F408"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="42" t="s">
         <v>90</v>
       </c>
@@ -7933,8 +8508,9 @@
       <c r="C409" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F409"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="42" t="s">
         <v>91</v>
       </c>
@@ -7944,8 +8520,9 @@
       <c r="C410" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F410"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="42" t="s">
         <v>89</v>
       </c>
@@ -7955,8 +8532,9 @@
       <c r="C411" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F411"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="42" t="s">
         <v>90</v>
       </c>
@@ -7966,8 +8544,9 @@
       <c r="C412" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F412"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="42" t="s">
         <v>91</v>
       </c>
@@ -7977,8 +8556,9 @@
       <c r="C413" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F413"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="42" t="s">
         <v>89</v>
       </c>
@@ -7988,8 +8568,9 @@
       <c r="C414" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F414"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="42" t="s">
         <v>90</v>
       </c>
@@ -7999,8 +8580,9 @@
       <c r="C415" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F415"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="42" t="s">
         <v>91</v>
       </c>
@@ -8010,8 +8592,9 @@
       <c r="C416" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F416"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="42" t="s">
         <v>89</v>
       </c>
@@ -8021,8 +8604,9 @@
       <c r="C417" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F417"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="42" t="s">
         <v>90</v>
       </c>
@@ -8032,8 +8616,9 @@
       <c r="C418" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F418"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="42" t="s">
         <v>91</v>
       </c>
@@ -8043,8 +8628,9 @@
       <c r="C419" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F419"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="42" t="s">
         <v>89</v>
       </c>
@@ -8054,8 +8640,9 @@
       <c r="C420" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F420"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="42" t="s">
         <v>90</v>
       </c>
@@ -8065,8 +8652,9 @@
       <c r="C421" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F421"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="42" t="s">
         <v>91</v>
       </c>
@@ -8076,8 +8664,9 @@
       <c r="C422" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F422"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="42" t="s">
         <v>89</v>
       </c>
@@ -8087,8 +8676,9 @@
       <c r="C423" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F423"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="42" t="s">
         <v>90</v>
       </c>
@@ -8098,8 +8688,9 @@
       <c r="C424" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F424"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="42" t="s">
         <v>91</v>
       </c>
@@ -8109,8 +8700,9 @@
       <c r="C425" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F425"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="42" t="s">
         <v>89</v>
       </c>
@@ -8120,8 +8712,9 @@
       <c r="C426" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F426"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="42" t="s">
         <v>90</v>
       </c>
@@ -8131,8 +8724,9 @@
       <c r="C427" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F427"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="42" t="s">
         <v>91</v>
       </c>
@@ -8142,8 +8736,9 @@
       <c r="C428" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F428"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="42" t="s">
         <v>89</v>
       </c>
@@ -8153,8 +8748,9 @@
       <c r="C429" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F429"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="42" t="s">
         <v>90</v>
       </c>
@@ -8164,8 +8760,9 @@
       <c r="C430" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F430"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="42" t="s">
         <v>91</v>
       </c>
@@ -8175,8 +8772,9 @@
       <c r="C431" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F431"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="42" t="s">
         <v>89</v>
       </c>
@@ -8186,8 +8784,9 @@
       <c r="C432" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F432"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="42" t="s">
         <v>90</v>
       </c>
@@ -8197,8 +8796,9 @@
       <c r="C433" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F433"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="42" t="s">
         <v>91</v>
       </c>
@@ -8208,8 +8808,9 @@
       <c r="C434" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F434"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="42" t="s">
         <v>89</v>
       </c>
@@ -8219,8 +8820,9 @@
       <c r="C435" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F435"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="42" t="s">
         <v>90</v>
       </c>
@@ -8230,8 +8832,9 @@
       <c r="C436" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F436"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="42" t="s">
         <v>91</v>
       </c>
@@ -8241,8 +8844,9 @@
       <c r="C437" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F437"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="42" t="s">
         <v>89</v>
       </c>
@@ -8252,8 +8856,9 @@
       <c r="C438" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F438"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="42" t="s">
         <v>90</v>
       </c>
@@ -8263,8 +8868,9 @@
       <c r="C439" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F439"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="42" t="s">
         <v>91</v>
       </c>
@@ -8274,8 +8880,9 @@
       <c r="C440" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F440"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="42" t="s">
         <v>89</v>
       </c>
@@ -8285,8 +8892,9 @@
       <c r="C441" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F441"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="42" t="s">
         <v>90</v>
       </c>
@@ -8296,8 +8904,9 @@
       <c r="C442" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F442"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="42" t="s">
         <v>91</v>
       </c>
@@ -8307,8 +8916,9 @@
       <c r="C443" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F443"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="42" t="s">
         <v>89</v>
       </c>
@@ -8318,8 +8928,9 @@
       <c r="C444" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F444"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="42" t="s">
         <v>90</v>
       </c>
@@ -8329,8 +8940,9 @@
       <c r="C445" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F445"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="42" t="s">
         <v>91</v>
       </c>
@@ -8340,8 +8952,9 @@
       <c r="C446" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F446"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="42" t="s">
         <v>89</v>
       </c>
@@ -8351,8 +8964,9 @@
       <c r="C447" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F447"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="42" t="s">
         <v>90</v>
       </c>
@@ -8362,8 +8976,9 @@
       <c r="C448" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F448"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="42" t="s">
         <v>91</v>
       </c>
@@ -8373,8 +8988,9 @@
       <c r="C449" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F449"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="42" t="s">
         <v>89</v>
       </c>
@@ -8384,8 +9000,9 @@
       <c r="C450" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F450"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="42" t="s">
         <v>90</v>
       </c>
@@ -8395,8 +9012,9 @@
       <c r="C451" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F451"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="42" t="s">
         <v>91</v>
       </c>
@@ -8406,8 +9024,9 @@
       <c r="C452" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F452"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="42" t="s">
         <v>89</v>
       </c>
@@ -8417,8 +9036,9 @@
       <c r="C453" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F453"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="42" t="s">
         <v>90</v>
       </c>
@@ -8428,8 +9048,9 @@
       <c r="C454" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F454"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="42" t="s">
         <v>91</v>
       </c>
@@ -8439,8 +9060,9 @@
       <c r="C455" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F455"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="42" t="s">
         <v>89</v>
       </c>
@@ -8450,8 +9072,9 @@
       <c r="C456" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F456"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="42" t="s">
         <v>90</v>
       </c>
@@ -8461,8 +9084,9 @@
       <c r="C457" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F457"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="42" t="s">
         <v>91</v>
       </c>
@@ -8472,8 +9096,9 @@
       <c r="C458" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F458"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="42" t="s">
         <v>89</v>
       </c>
@@ -8483,8 +9108,9 @@
       <c r="C459" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F459"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="42" t="s">
         <v>90</v>
       </c>
@@ -8494,8 +9120,9 @@
       <c r="C460" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F460"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="42" t="s">
         <v>91</v>
       </c>
@@ -8505,8 +9132,9 @@
       <c r="C461" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F461"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="42" t="s">
         <v>89</v>
       </c>
@@ -8516,8 +9144,9 @@
       <c r="C462" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F462"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="42" t="s">
         <v>90</v>
       </c>
@@ -8527,8 +9156,9 @@
       <c r="C463" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F463"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="42" t="s">
         <v>91</v>
       </c>
@@ -8538,8 +9168,9 @@
       <c r="C464" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F464"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="42" t="s">
         <v>89</v>
       </c>
@@ -8549,8 +9180,9 @@
       <c r="C465" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F465"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="42" t="s">
         <v>90</v>
       </c>
@@ -8560,8 +9192,9 @@
       <c r="C466" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F466"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="42" t="s">
         <v>91</v>
       </c>
@@ -8571,8 +9204,9 @@
       <c r="C467" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F467"/>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="42" t="s">
         <v>89</v>
       </c>
@@ -8582,8 +9216,9 @@
       <c r="C468" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F468"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="42" t="s">
         <v>90</v>
       </c>
@@ -8593,8 +9228,9 @@
       <c r="C469" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F469"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="42" t="s">
         <v>91</v>
       </c>
@@ -8604,8 +9240,9 @@
       <c r="C470" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F470"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="42" t="s">
         <v>89</v>
       </c>
@@ -8615,8 +9252,9 @@
       <c r="C471" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F471"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="42" t="s">
         <v>90</v>
       </c>
@@ -8626,8 +9264,9 @@
       <c r="C472" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F472"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="42" t="s">
         <v>91</v>
       </c>
@@ -8637,8 +9276,9 @@
       <c r="C473" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F473"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="42" t="s">
         <v>89</v>
       </c>
@@ -8648,8 +9288,9 @@
       <c r="C474" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F474"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="42" t="s">
         <v>90</v>
       </c>
@@ -8659,8 +9300,9 @@
       <c r="C475" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F475"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="42" t="s">
         <v>91</v>
       </c>
@@ -8670,8 +9312,9 @@
       <c r="C476" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F476"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="42" t="s">
         <v>89</v>
       </c>
@@ -8681,8 +9324,9 @@
       <c r="C477" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F477"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="42" t="s">
         <v>90</v>
       </c>
@@ -8692,8 +9336,9 @@
       <c r="C478" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F478"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="42" t="s">
         <v>91</v>
       </c>
@@ -8703,8 +9348,9 @@
       <c r="C479" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F479"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="42" t="s">
         <v>89</v>
       </c>
@@ -8714,8 +9360,9 @@
       <c r="C480" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F480"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="42" t="s">
         <v>90</v>
       </c>
@@ -8725,8 +9372,9 @@
       <c r="C481" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F481"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="42" t="s">
         <v>89</v>
       </c>
@@ -8736,8 +9384,9 @@
       <c r="C482" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F482"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="42" t="s">
         <v>90</v>
       </c>
@@ -8747,8 +9396,9 @@
       <c r="C483" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F483"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="42" t="s">
         <v>91</v>
       </c>
@@ -8758,8 +9408,9 @@
       <c r="C484" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F484"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="42" t="s">
         <v>89</v>
       </c>
@@ -8769,8 +9420,9 @@
       <c r="C485" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F485"/>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="42" t="s">
         <v>90</v>
       </c>
@@ -8780,8 +9432,9 @@
       <c r="C486" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F486"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="42" t="s">
         <v>91</v>
       </c>
@@ -8791,8 +9444,9 @@
       <c r="C487" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F487"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="42" t="s">
         <v>89</v>
       </c>
@@ -8802,8 +9456,9 @@
       <c r="C488" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F488"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="42" t="s">
         <v>90</v>
       </c>
@@ -8813,8 +9468,9 @@
       <c r="C489" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F489"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="42" t="s">
         <v>91</v>
       </c>
@@ -8824,8 +9480,9 @@
       <c r="C490" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F490"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="42" t="s">
         <v>89</v>
       </c>
@@ -8835,8 +9492,9 @@
       <c r="C491" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F491"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="42" t="s">
         <v>90</v>
       </c>
@@ -8846,8 +9504,9 @@
       <c r="C492" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F492"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="42" t="s">
         <v>91</v>
       </c>
@@ -8857,8 +9516,9 @@
       <c r="C493" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F493"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="42" t="s">
         <v>89</v>
       </c>
@@ -8868,8 +9528,9 @@
       <c r="C494" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F494"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="42" t="s">
         <v>90</v>
       </c>
@@ -8879,8 +9540,9 @@
       <c r="C495" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F495"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="42" t="s">
         <v>91</v>
       </c>
@@ -8890,8 +9552,9 @@
       <c r="C496" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F496"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="42" t="s">
         <v>89</v>
       </c>
@@ -8901,8 +9564,9 @@
       <c r="C497" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F497"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="42" t="s">
         <v>90</v>
       </c>
@@ -8912,8 +9576,9 @@
       <c r="C498" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F498"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="42" t="s">
         <v>91</v>
       </c>
@@ -8923,8 +9588,9 @@
       <c r="C499" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F499"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="42" t="s">
         <v>89</v>
       </c>
@@ -8934,8 +9600,9 @@
       <c r="C500" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F500"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="42" t="s">
         <v>90</v>
       </c>
@@ -8945,8 +9612,9 @@
       <c r="C501" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F501"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="42" t="s">
         <v>91</v>
       </c>
@@ -8956,8 +9624,9 @@
       <c r="C502" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F502"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="42" t="s">
         <v>89</v>
       </c>
@@ -8967,8 +9636,9 @@
       <c r="C503" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F503"/>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="42" t="s">
         <v>90</v>
       </c>
@@ -8978,8 +9648,9 @@
       <c r="C504" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F504"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="42" t="s">
         <v>91</v>
       </c>
@@ -8989,8 +9660,9 @@
       <c r="C505" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F505"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="42" t="s">
         <v>89</v>
       </c>
@@ -9000,8 +9672,9 @@
       <c r="C506" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F506"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="42" t="s">
         <v>90</v>
       </c>
@@ -9011,8 +9684,9 @@
       <c r="C507" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F507"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="42" t="s">
         <v>91</v>
       </c>
@@ -9022,8 +9696,9 @@
       <c r="C508" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F508"/>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="42" t="s">
         <v>89</v>
       </c>
@@ -9033,8 +9708,9 @@
       <c r="C509" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F509"/>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="42" t="s">
         <v>90</v>
       </c>
@@ -9044,8 +9720,9 @@
       <c r="C510" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F510"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="42" t="s">
         <v>91</v>
       </c>
@@ -9055,8 +9732,9 @@
       <c r="C511" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F511"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="42" t="s">
         <v>89</v>
       </c>
@@ -9066,8 +9744,9 @@
       <c r="C512" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F512"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="42" t="s">
         <v>90</v>
       </c>
@@ -9077,8 +9756,9 @@
       <c r="C513" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F513"/>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="42" t="s">
         <v>91</v>
       </c>
@@ -9088,8 +9768,9 @@
       <c r="C514" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F514"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="42" t="s">
         <v>89</v>
       </c>
@@ -9099,8 +9780,9 @@
       <c r="C515" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F515"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="42" t="s">
         <v>90</v>
       </c>
@@ -9110,8 +9792,9 @@
       <c r="C516" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F516"/>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="42" t="s">
         <v>91</v>
       </c>
@@ -9121,8 +9804,9 @@
       <c r="C517" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F517"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="42" t="s">
         <v>89</v>
       </c>
@@ -9132,8 +9816,9 @@
       <c r="C518" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F518"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="42" t="s">
         <v>90</v>
       </c>
@@ -9143,8 +9828,9 @@
       <c r="C519" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F519"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="42" t="s">
         <v>91</v>
       </c>
@@ -9154,8 +9840,9 @@
       <c r="C520" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F520"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="42" t="s">
         <v>89</v>
       </c>
@@ -9165,8 +9852,9 @@
       <c r="C521" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F521"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="42" t="s">
         <v>90</v>
       </c>
@@ -9176,8 +9864,9 @@
       <c r="C522" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F522"/>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="42" t="s">
         <v>91</v>
       </c>
@@ -9187,8 +9876,9 @@
       <c r="C523" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F523"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="42" t="s">
         <v>89</v>
       </c>
@@ -9198,8 +9888,9 @@
       <c r="C524" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F524"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="42" t="s">
         <v>90</v>
       </c>
@@ -9209,8 +9900,9 @@
       <c r="C525" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F525"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="42" t="s">
         <v>91</v>
       </c>
@@ -9220,8 +9912,9 @@
       <c r="C526" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F526"/>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="42" t="s">
         <v>89</v>
       </c>
@@ -9231,8 +9924,9 @@
       <c r="C527" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F527"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="42" t="s">
         <v>90</v>
       </c>
@@ -9242,8 +9936,9 @@
       <c r="C528" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F528"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="42" t="s">
         <v>91</v>
       </c>
@@ -9253,8 +9948,9 @@
       <c r="C529" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F529"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="42" t="s">
         <v>89</v>
       </c>
@@ -9264,8 +9960,9 @@
       <c r="C530" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F530"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="42" t="s">
         <v>90</v>
       </c>
@@ -9275,8 +9972,9 @@
       <c r="C531" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F531"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="42" t="s">
         <v>91</v>
       </c>
@@ -9286,8 +9984,9 @@
       <c r="C532" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F532"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="42" t="s">
         <v>89</v>
       </c>
@@ -9297,8 +9996,9 @@
       <c r="C533" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F533"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="42" t="s">
         <v>90</v>
       </c>
@@ -9308,8 +10008,9 @@
       <c r="C534" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F534"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="42" t="s">
         <v>91</v>
       </c>
@@ -9319,8 +10020,9 @@
       <c r="C535" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F535"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="42" t="s">
         <v>89</v>
       </c>
@@ -9330,8 +10032,9 @@
       <c r="C536" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F536"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="42" t="s">
         <v>90</v>
       </c>
@@ -9341,8 +10044,9 @@
       <c r="C537" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F537"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="42" t="s">
         <v>91</v>
       </c>
@@ -9352,8 +10056,9 @@
       <c r="C538" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F538"/>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="42" t="s">
         <v>89</v>
       </c>
@@ -9363,8 +10068,9 @@
       <c r="C539" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F539"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="42" t="s">
         <v>90</v>
       </c>
@@ -9374,8 +10080,9 @@
       <c r="C540" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F540"/>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="42" t="s">
         <v>91</v>
       </c>
@@ -9385,8 +10092,9 @@
       <c r="C541" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F541"/>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="42" t="s">
         <v>89</v>
       </c>
@@ -9396,8 +10104,9 @@
       <c r="C542" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F542"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="42" t="s">
         <v>90</v>
       </c>
@@ -9407,8 +10116,9 @@
       <c r="C543" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F543"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="42" t="s">
         <v>91</v>
       </c>
@@ -9418,8 +10128,9 @@
       <c r="C544" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F544"/>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="42" t="s">
         <v>89</v>
       </c>
@@ -9429,8 +10140,9 @@
       <c r="C545" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F545"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="42" t="s">
         <v>90</v>
       </c>
@@ -9440,8 +10152,9 @@
       <c r="C546" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F546"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="42" t="s">
         <v>91</v>
       </c>
@@ -9451,8 +10164,9 @@
       <c r="C547" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F547"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="42" t="s">
         <v>89</v>
       </c>
@@ -9462,8 +10176,9 @@
       <c r="C548" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F548"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="42" t="s">
         <v>90</v>
       </c>
@@ -9473,8 +10188,9 @@
       <c r="C549" s="42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F549"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="42" t="s">
         <v>91</v>
       </c>
@@ -9484,8 +10200,9 @@
       <c r="C550" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F550"/>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="42" t="s">
         <v>89</v>
       </c>
@@ -9495,8 +10212,9 @@
       <c r="C551" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F551"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="42" t="s">
         <v>90</v>
       </c>
@@ -9506,8 +10224,9 @@
       <c r="C552" s="42" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F552"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="42" t="s">
         <v>91</v>
       </c>
@@ -9517,8 +10236,9 @@
       <c r="C553" s="42" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F553"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="42" t="s">
         <v>89</v>
       </c>
@@ -9528,8 +10248,9 @@
       <c r="C554" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F554"/>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="42" t="s">
         <v>90</v>
       </c>
@@ -9539,8 +10260,9 @@
       <c r="C555" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F555"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="42" t="s">
         <v>91</v>
       </c>
@@ -9550,8 +10272,9 @@
       <c r="C556" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F556"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="42" t="s">
         <v>89</v>
       </c>
@@ -9561,8 +10284,9 @@
       <c r="C557" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F557"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="42" t="s">
         <v>90</v>
       </c>
@@ -9572,8 +10296,9 @@
       <c r="C558" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F558"/>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="42" t="s">
         <v>91</v>
       </c>
@@ -9583,8 +10308,9 @@
       <c r="C559" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F559"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="42" t="s">
         <v>89</v>
       </c>
@@ -9594,8 +10320,9 @@
       <c r="C560" s="42" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F560"/>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="42" t="s">
         <v>90</v>
       </c>
@@ -9605,6 +10332,7 @@
       <c r="C561" s="42" t="s">
         <v>96</v>
       </c>
+      <c r="F561"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9613,7 +10341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:Q15"/>
   <sheetViews>
@@ -9651,14 +10379,14 @@
       <c r="F1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="33">
@@ -9673,12 +10401,12 @@
         <v>4</v>
       </c>
       <c r="F2" s="23"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="33">
@@ -9873,7 +10601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:T688"/>
   <sheetViews>
@@ -10011,14 +10739,14 @@
         <f t="array" ref="K4">COUNTIF(B:B,CDE)</f>
         <v>185</v>
       </c>
-      <c r="O4" s="57" t="s">
+      <c r="O4" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
@@ -10045,12 +10773,12 @@
       <c r="J5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
     </row>
     <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
@@ -25771,12 +26499,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25815,10 +26543,6 @@
       <c r="A5" s="29">
         <v>3</v>
       </c>
-      <c r="E5" s="8">
-        <f>COUNT(A2:A17)</f>
-        <v>10</v>
-      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="29">
@@ -25829,6 +26553,10 @@
       <c r="A7" s="29">
         <v>3</v>
       </c>
+      <c r="E7" s="8">
+        <f>COUNT(A2:A17)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
@@ -25841,10 +26569,6 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>62</v>
-      </c>
-      <c r="E10" s="8">
-        <f>COUNT(A2:A17)</f>
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -25875,6 +26599,10 @@
       <c r="A14" s="29" t="s">
         <v>63</v>
       </c>
+      <c r="D14" s="8">
+        <f>COUNT(A2:A17)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="29">
@@ -25901,12 +26629,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -25951,6 +26679,10 @@
       <c r="A7" s="29">
         <v>3</v>
       </c>
+      <c r="E7" s="8">
+        <f>COUNTA(A2:A17)</f>
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="29"/>
@@ -25959,7 +26691,7 @@
       <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="E9" s="8">
         <f>COUNTA(A2:A17)</f>
         <v>13</v>
       </c>
@@ -25967,10 +26699,6 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="8">
-        <f>COUNTA(A2:A17)</f>
-        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -26027,12 +26755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -26099,10 +26827,6 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="29"/>
-      <c r="F11" s="8">
-        <f>COUNTBLANK(A2:A17)</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="29">
@@ -26113,10 +26837,7 @@
       <c r="A13" s="29">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="29" t="s">
@@ -26148,12 +26869,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26211,6 +26932,10 @@
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="F6">
+        <f>COUNTIF(A1:B16,"Delhi")</f>
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -26235,14 +26960,6 @@
       <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E9">
-        <f>COUNTIF(A1:B16,"Delhi")</f>
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <f>COUNTIF(A1:B16,"Gurgaon")</f>
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -26266,6 +26983,10 @@
       </c>
       <c r="B12" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(A1:B16,"Gurgaon")</f>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -26306,7 +27027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:H96"/>
   <sheetViews>
@@ -26830,12 +27551,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="K6" sqref="K6:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -27299,7 +28020,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -27575,7 +28296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:F17"/>
   <sheetViews>
